--- a/biology/Botanique/Konstanty_Jelski/Konstanty_Jelski.xlsx
+++ b/biology/Botanique/Konstanty_Jelski/Konstanty_Jelski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Konstanty Jelski est un botaniste et un ornithologue polonais, né le 17 février 1837 et mort le 26 novembre 1896.
 Il conduit plusieurs expéditions importantes en Guyane et au Pérou de 1866 à 1875. Il est conservateur du muséum de Lima de 1874 à 1878 avant de revenir en Pologne où il devient conservateur du Muséum de Cracovie.
@@ -512,7 +524,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clavija jelskii
 Ilex jelskii
